--- a/xlsx/美国军事_intext.xlsx
+++ b/xlsx/美国军事_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1091">
   <si>
     <t>美国军事</t>
   </si>
@@ -29,7 +29,7 @@
     <t>美国陆军</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国军事</t>
+    <t>政策_政策_美国_美国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
@@ -59,37 +59,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維吉尼亞州</t>
+    <t>维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%9D%88%E9%A0%93%E7%B8%A3_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>阿靈頓縣 (維吉尼亞州)</t>
+    <t>阿灵顿县 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%98%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國防部</t>
+    <t>美国国防部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%A7%92%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>五角大樓</t>
+    <t>五角大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納·川普</t>
+    <t>唐纳·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8%E9%95%BF</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>陸軍</t>
+    <t>陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%AD%A6%E8%A3%85%E9%83%A8%E9%98%9F%E5%88%97%E8%A1%A8</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%AD%87%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>洛歇馬丁</t>
+    <t>洛歇马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E9%9B%BB%E6%B0%A3</t>
   </si>
   <si>
-    <t>通用電氣</t>
+    <t>通用电气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%88%B0</t>
   </si>
   <si>
-    <t>韓戰</t>
+    <t>韩战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83%E6%88%98%E4%BA%89</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E8%A3%9D%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>武裝部隊</t>
+    <t>武装部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%AD%A6%E5%99%A8</t>
@@ -335,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E5%A4%96%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>駐外美軍</t>
+    <t>驻外美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%80%E9%9A%8A</t>
   </si>
   <si>
-    <t>儀隊</t>
+    <t>仪队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UH-60</t>
@@ -353,25 +353,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%B4%94%E5%85%8B%E8%A3%9D%E7%94%B2%E8%BB%8A</t>
   </si>
   <si>
-    <t>史崔克裝甲車</t>
+    <t>史崔克装甲车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%BB%8D%E7%AC%AC1%E9%A8%8E%E5%85%B5%E5%B8%AB</t>
   </si>
   <si>
-    <t>美軍第1騎兵師</t>
+    <t>美军第1骑兵师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%AC%AC2%E6%AD%A5%E5%85%B5%E5%B8%AB</t>
   </si>
   <si>
-    <t>美國陸軍第2步兵師</t>
+    <t>美国陆军第2步兵师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC10%E5%B1%B1%E5%9C%B0%E5%B8%AB</t>
   </si>
   <si>
-    <t>第10山地師</t>
+    <t>第10山地师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC82%E7%A9%BA%E9%99%8D%E5%B8%88</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E9%9F%93%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>駐韓美軍</t>
+    <t>驻韩美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M1%E8%89%BE%E5%B8%83%E5%85%B0</t>
@@ -413,13 +413,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B7%82%E9%B7%B9%E6%BC%94%E7%BF%92</t>
   </si>
   <si>
-    <t>鷂鷹演習</t>
+    <t>鹞鹰演习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FGM-148%E6%A8%99%E6%A7%8D%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>FGM-148標槍飛彈</t>
+    <t>FGM-148标枪飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%85%E7%94%B2%E4%BE%A6%E5%AF%9F%E8%BD%A6</t>
@@ -431,13 +431,13 @@
     <t>https://zh.wikipedia.org/wiki/M2%E6%AD%A5%E5%85%B5%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>M2步兵戰車</t>
+    <t>M2步兵战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M3%E6%AD%A5%E5%85%B5%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>M3步兵戰車</t>
+    <t>M3步兵战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%85%E7%94%B2%E8%BE%93%E9%80%81%E8%BD%A6</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%9D%A6%E5%85%8B%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>反坦克飛彈</t>
+    <t>反坦克飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%82%AE</t>
@@ -473,13 +473,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E7%A9%BA%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>防空飛彈</t>
+    <t>防空飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%9C%8B%E8%80%85%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>愛國者飛彈</t>
+    <t>爱国者飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E4%BA%BA%E9%A9%BE%E9%A9%B6%E9%A3%9E%E6%9C%BA</t>
@@ -497,19 +497,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%9B%9B%E8%89%A6%E9%9A%8A_(%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D)</t>
   </si>
   <si>
-    <t>第四艦隊 (美國海軍)</t>
+    <t>第四舰队 (美国海军)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E8%89%A6%E9%9A%8A_(%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D)</t>
   </si>
   <si>
-    <t>第五艦隊 (美國海軍)</t>
+    <t>第五舰队 (美国海军)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC7%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>第7艦隊</t>
+    <t>第7舰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%85%E9%80%90%E8%89%A6</t>
   </si>
   <si>
-    <t>驅逐艦</t>
+    <t>驱逐舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E7%BA%A7%E6%BD%9C%E8%89%87</t>
@@ -539,61 +539,61 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%8B%BC%E7%B4%9A</t>
   </si>
   <si>
-    <t>海狼級</t>
+    <t>海狼级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E7%B4%9A</t>
   </si>
   <si>
-    <t>維吉尼亞級</t>
+    <t>维吉尼亚级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%B1%B3%E8%8C%B2%E7%B4%9A%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>尼米茲級航空母艦</t>
+    <t>尼米兹级航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F/A-18%E9%BB%83%E8%9C%82%E5%BC%8F%E6%88%B0%E9%AC%A5%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>F/A-18黃蜂式戰鬥攻擊機</t>
+    <t>F/A-18黄蜂式战斗攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/S-3%E7%B6%AD%E4%BA%AC%E5%BC%8F%E5%8F%8D%E6%BD%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>S-3維京式反潛機</t>
+    <t>S-3维京式反潜机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/EP-3%E5%81%B5%E5%AF%9F%E6%A9%9F</t>
   </si>
   <si>
-    <t>EP-3偵察機</t>
+    <t>EP-3侦察机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SH-60%E6%B5%B7%E9%B7%B9%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>SH-60海鷹直升機</t>
+    <t>SH-60海鹰直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/EA-6%E5%BE%98%E5%BE%8A%E8%80%85%E5%BC%8F%E9%9B%BB%E5%AD%90%E4%BD%9C%E6%88%B0%E6%A9%9F</t>
   </si>
   <si>
-    <t>EA-6徘徊者式電子作戰機</t>
+    <t>EA-6徘徊者式电子作战机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/E-2%E7%A9%BA%E4%B8%AD%E9%A0%90%E8%AD%A6%E6%A9%9F</t>
   </si>
   <si>
-    <t>E-2空中預警機</t>
+    <t>E-2空中预警机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/C-2%E7%81%B0%E7%8B%97%E5%BC%8F%E9%81%8B%E8%BC%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>C-2灰狗式運輸機</t>
+    <t>C-2灰狗式运输机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%BA%B7%E5%BE%B7%E7%BD%97%E5%8A%A0%E7%BA%A7%E5%AF%BC%E5%BC%B9%E5%B7%A1%E6%B4%8B%E8%88%B0</t>
@@ -605,13 +605,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E7%B4%9A</t>
   </si>
   <si>
-    <t>伯克級</t>
+    <t>伯克级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E5%A7%86%E6%B2%83%E7%88%BE%E7%89%B9%E7%B4%9A</t>
   </si>
   <si>
-    <t>朱姆沃爾特級</t>
+    <t>朱姆沃尔特级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%BD%9C%E7%9B%B4%E5%8D%87%E6%9C%BA</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E7%B9%A9</t>
   </si>
   <si>
-    <t>沖繩</t>
+    <t>冲绳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E6%89%8B%E7%BA%B3%E7%A9%BA%E5%86%9B%E5%9F%BA%E5%9C%B0</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/B-1%E6%A7%8D%E9%A8%8E%E5%85%B5%E6%88%B0%E7%95%A5%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-1槍騎兵戰略轟炸機</t>
+    <t>B-1枪骑兵战略轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/U-2</t>
@@ -719,19 +719,19 @@
     <t>https://zh.wikipedia.org/wiki/M18A1%E9%97%8A%E5%88%80%E5%9C%B0%E9%9B%B7</t>
   </si>
   <si>
-    <t>M18A1闊刀地雷</t>
+    <t>M18A1阔刀地雷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F</t>
   </si>
   <si>
-    <t>營</t>
+    <t>营</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A%E4%BD%BF%E9%A4%A8%E8%AD%A6%E8%A1%9B%E5%A4%A7%E9%9A%8A</t>
   </si>
   <si>
-    <t>海軍陸戰隊使館警衛大隊</t>
+    <t>海军陆战队使馆警卫大队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
@@ -749,45 +749,30 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A1%E9%82%8F%E8%89%A6</t>
   </si>
   <si>
-    <t>巡邏艦</t>
+    <t>巡逻舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E7%BF%BC%E6%A9%9F</t>
   </si>
   <si>
-    <t>定翼機</t>
+    <t>定翼机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>直升機</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美国国防部</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%A7%92%E5%A4%A7%E6%A5%BC</t>
   </si>
   <si>
-    <t>五角大楼</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
   </si>
   <si>
-    <t>美国总统</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%AD%A6%E8%A3%9D%E9%83%A8%E9%9A%8A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國武裝部隊列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
@@ -869,19 +854,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%B1%B9%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>海豹部隊</t>
+    <t>海豹部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%89%B9%E7%A8%AE%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國陸軍特種部隊</t>
+    <t>美国陆军特种部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E6%93%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>突擊隊</t>
+    <t>突击队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A5%E5%85%B5</t>
@@ -899,9 +884,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%A5</t>
   </si>
   <si>
-    <t>营</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%B0%91%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
   </si>
   <si>
@@ -917,43 +899,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A2%B0%E5%8C%96%E6%AD%A5%E5%85%B5</t>
   </si>
   <si>
-    <t>機械化步兵</t>
+    <t>机械化步兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F</t>
   </si>
   <si>
-    <t>美國領土</t>
+    <t>美国领土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國海軍</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國海軍陸戰隊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國空軍</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%AC%E5%9C%9F</t>
   </si>
   <si>
-    <t>美國本土</t>
+    <t>美国本土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
@@ -971,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
@@ -995,9 +965,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
   </si>
   <si>
-    <t>德国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
@@ -1109,7 +1076,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%A1%94%E9%82%A3%E6%91%A9%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
-    <t>關塔那摩基地</t>
+    <t>关塔那摩基地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
@@ -1133,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%B9%95%E9%81%94</t>
   </si>
   <si>
-    <t>百幕達</t>
+    <t>百幕达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E5%8B%A4</t>
@@ -1145,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%BB%8D%E5%A4%AA%E5%B9%B3%E6%B4%8B%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>美軍太平洋艦隊</t>
+    <t>美军太平洋舰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85</t>
@@ -1157,13 +1124,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E9%80%9F%E5%8F%8D%E6%87%89%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>快速反應部隊</t>
+    <t>快速反应部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E9%9A%8A%E7%B5%90%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國軍隊結構</t>
+    <t>美国军队结构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
@@ -1205,7 +1172,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E9%83%A8</t>
   </si>
   <si>
-    <t>美國空軍部</t>
+    <t>美国空军部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B%E9%83%A8</t>
@@ -1325,13 +1292,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>美國太平洋司令部</t>
+    <t>美国太平洋司令部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%80%E9%A6%99%E5%B1%B1_(%E5%A4%8F%E5%A8%81%E5%A4%B7)</t>
@@ -1439,7 +1403,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%9F%E8%BB%8D%E4%BD%94%E9%A0%98%E6%97%A5%E6%9C%AC</t>
   </si>
   <si>
-    <t>盟軍佔領日本</t>
+    <t>盟军佔领日本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E8%A7%86%E5%8E%85</t>
@@ -1475,19 +1439,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E5%8F%B0%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>駐台美軍</t>
+    <t>驻台美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E8%B6%8A%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>駐越美軍</t>
+    <t>驻越美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%A3%9B%E5%BD%88%E9%98%B2%E7%A6%A6%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>國家飛彈防禦系統</t>
+    <t>国家飞弹防御系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%86%9B%E4%BA%8B%E5%8F%B2</t>
@@ -1499,7 +1463,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E5%B9%B4%E5%BA%A6%E9%A2%A8%E9%9B%B2%E4%BA%BA%E7%89%A9</t>
   </si>
   <si>
-    <t>時代年度風雲人物</t>
+    <t>时代年度风云人物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7W%C2%B7%E5%B8%83%E4%BB%80</t>
@@ -1517,7 +1481,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B%E8%BB%8D</t>
   </si>
   <si>
-    <t>美利堅合眾國軍</t>
+    <t>美利坚合众国军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8%E5%89%AF%E9%83%A8%E9%95%BF</t>
@@ -1529,7 +1493,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AC%80%E9%95%B7%E8%81%AF%E5%B8%AD%E6%9C%83%E8%AD%B0%E4%B8%BB%E5%B8%AD</t>
   </si>
   <si>
-    <t>美國參謀長聯席會議主席</t>
+    <t>美国参谋长联席会议主席</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2%E5%86%9B%E4%BA%8B%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -1559,7 +1523,7 @@
     <t>https://zh.wikipedia.org/wiki/1947%E5%B9%B4%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>1947年國家安全法案</t>
+    <t>1947年国家安全法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B%E5%8F%82%E8%B0%8B%E9%95%BF</t>
@@ -1613,7 +1577,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%85%B8%E7%AC%AC10%E5%8D%B7</t>
   </si>
   <si>
-    <t>美國法典第10卷</t>
+    <t>美国法典第10卷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F%E5%86%9B%E4%BA%8B%E5%8D%95%E4%BD%8D%E4%B8%8E%E7%BC%96%E5%88%B6</t>
@@ -1637,7 +1601,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%85%B5%E8%A8%93%E7%B7%B4</t>
   </si>
   <si>
-    <t>新兵訓練</t>
+    <t>新兵训练</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Marine_Corps_Recruit_Training</t>
@@ -1787,7 +1751,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA%E4%BA%8B%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>美國退伍軍人事務部</t>
+    <t>美国退伍军人事务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A7%E7%BC%BA%E4%BA%BA%E6%89%8D%E5%BE%81%E5%85%B5%E8%AE%A1%E5%88%92</t>
@@ -1817,7 +1781,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -1841,7 +1805,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -1889,7 +1853,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -1913,7 +1877,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -1943,7 +1907,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -1979,7 +1943,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
@@ -2003,7 +1967,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -2045,25 +2009,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -2081,7 +2045,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -2093,7 +2057,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -2135,7 +2099,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -2147,7 +2111,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -2183,7 +2147,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -2195,13 +2159,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -2213,13 +2177,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -2231,13 +2195,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -2273,9 +2237,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
   </si>
   <si>
-    <t>美国领土</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
   </si>
   <si>
@@ -2285,7 +2246,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -2297,13 +2258,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -2315,7 +2276,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -2327,7 +2288,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -2339,13 +2300,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -2363,7 +2324,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -2435,15 +2396,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -2453,7 +2411,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -2507,7 +2465,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -2543,7 +2501,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -2561,7 +2519,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -2597,19 +2555,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -2621,7 +2579,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -2645,13 +2603,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E5%86%9B%E4%BA%8B</t>
@@ -2663,13 +2621,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>安地卡及巴布達軍事</t>
+    <t>安地卡及巴布达军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%B2%9D%E5%A4%9A%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>巴貝多軍事</t>
+    <t>巴贝多军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E5%86%9B%E4%BA%8B</t>
@@ -2681,13 +2639,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>秘魯軍事</t>
+    <t>秘鲁军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國軍事</t>
+    <t>多明尼加共和国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0%E5%86%9B%E4%BA%8B</t>
@@ -2699,7 +2657,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>洪都拉斯軍事</t>
+    <t>洪都拉斯军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A%E5%86%9B%E4%BA%8B</t>
@@ -2723,19 +2681,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>委內瑞拉軍事</t>
+    <t>委内瑞拉军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>牙買加軍事</t>
+    <t>牙买加军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>智利軍事</t>
+    <t>智利军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
@@ -2747,19 +2705,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E4%BB%A3%E5%B9%B4%E5%BA%A6%E9%A3%8E%E4%BA%91%E4%BA%BA%E7%89%A9</t>
   </si>
   <si>
-    <t>时代年度风云人物</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E6%9E%97%E5%BE%B7%E4%BC%AF%E6%A0%BC</t>
   </si>
   <si>
-    <t>查爾斯·林德伯格</t>
+    <t>查尔斯·林德伯格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%88%BE%E7%89%B9%C2%B7%E5%85%8B%E8%90%8A%E6%96%AF%E5%8B%92</t>
   </si>
   <si>
-    <t>沃爾特·克萊斯勒</t>
+    <t>沃尔特·克莱斯勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%9B%84%E7%94%98%E5%9C%B0</t>
@@ -2795,13 +2750,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E4%B8%AD%E6%AD%A3</t>
   </si>
   <si>
-    <t>蔣中正</t>
+    <t>蒋中正</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E7%BE%8E%E9%BD%A1</t>
   </si>
   <si>
-    <t>宋美齡</t>
+    <t>宋美龄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E5%B8%8C%E7%89%B9%E5%8B%92</t>
@@ -2885,7 +2840,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E7%88%BE%C2%B7%E6%88%B4%E9%AB%98%E6%A8%82</t>
   </si>
   <si>
-    <t>夏爾·戴高樂</t>
+    <t>夏尔·戴高乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E5%AE%B6</t>
@@ -2927,7 +2882,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%B4%8D%E6%96%AF%C2%B7%E9%AE%91%E6%9E%97</t>
   </si>
   <si>
-    <t>萊納斯·鮑林</t>
+    <t>莱纳斯·鲍林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E7%8F%80%E5%A1%9E%E5%B0%94</t>
@@ -2957,7 +2912,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E6%B3%B0%E5%8B%92</t>
   </si>
   <si>
-    <t>愛德華·泰勒</t>
+    <t>爱德华·泰勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E6%B1%A4%E6%96%AF</t>
@@ -2969,7 +2924,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%8C%83%C2%B7%E8%89%BE%E5%80%AB</t>
   </si>
   <si>
-    <t>詹姆斯·范·艾倫</t>
+    <t>詹姆斯·范·艾伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E4%BC%AF%E6%81%A9%E6%96%AF%C2%B7%E4%BC%8D%E5%BE%B7%E6%B2%83%E5%BE%B7</t>
@@ -3011,7 +2966,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AC%B0%E5%85%92%E6%BD%AE</t>
   </si>
   <si>
-    <t>嬰兒潮</t>
+    <t>婴儿潮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BD%978%E5%8F%B7</t>
@@ -3077,7 +3032,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AD%E8%8A%AD%E6%8B%89%C2%B7%E5%96%AC%E4%B8%B9</t>
   </si>
   <si>
-    <t>芭芭拉·喬丹</t>
+    <t>芭芭拉·乔丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%C2%B7%E7%AE%80%C2%B7%E9%87%91</t>
@@ -3095,7 +3050,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E5%AE%89%E7%93%A6%E7%88%BE%C2%B7%E8%96%A9%E9%81%94%E7%89%B9</t>
   </si>
   <si>
-    <t>穆罕默德·安瓦爾·薩達特</t>
+    <t>穆罕默德·安瓦尔·萨达特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%93%E5%B0%8F%E5%B9%B3</t>
@@ -3137,7 +3092,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E6%8B%89%E8%93%89%C2%B7%E8%89%BE%E5%A5%8E%E8%AB%BE</t>
   </si>
   <si>
-    <t>柯拉蓉·艾奎諾</t>
+    <t>柯拉蓉·艾奎诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%93%88%E4%BC%8A%E5%B0%94%C2%B7%E8%B0%A2%E5%B0%94%E7%9B%96%E8%80%B6%E7%BB%B4%E5%A5%87%C2%B7%E6%88%88%E5%B0%94%E5%B7%B4%E4%B9%94%E5%A4%AB</t>
@@ -3161,7 +3116,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%BE%B7%C2%B7%E9%80%8F%E7%B4%8D</t>
   </si>
   <si>
-    <t>泰德·透納</t>
+    <t>泰德·透纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E5%85%8B%E6%9E%97%E9%A1%BF</t>
@@ -3197,13 +3152,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E4%BF%9D%E7%A5%BF%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>若望·保祿二世</t>
+    <t>若望·保禄二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%89%B9%C2%B7%E9%87%91%E9%87%8C%E5%A5%87</t>
   </si>
   <si>
-    <t>紐特·金里奇</t>
+    <t>纽特·金里奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%A4%A7%E4%B8%80</t>
@@ -3227,7 +3182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E8%BF%AA%C2%B7%E6%9C%B1%E5%88%A9%E5%AE%89%E5%B0%BC</t>
   </si>
   <si>
-    <t>魯迪·朱利安尼</t>
+    <t>鲁迪·朱利安尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%8A%E5%AF%86%E8%80%85</t>
@@ -3239,7 +3194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E6%92%92%E9%A6%AC%E5%88%A9%E4%BA%9E%E4%BA%BA%E7%9A%84%E6%AF%94%E5%96%BB</t>
   </si>
   <si>
-    <t>好撒馬利亞人的比喻</t>
+    <t>好撒马利亚人的比喻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%AF%BA</t>
@@ -3293,13 +3248,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E8%AD%B0</t>
   </si>
   <si>
-    <t>抗議</t>
+    <t>抗议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%BF%9F%E5%90%84_(%E6%95%99%E5%AE%97)</t>
   </si>
   <si>
-    <t>方濟各 (教宗)</t>
+    <t>方济各 (教宗)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E8%A5%BF%E9%9D%9E%E4%BC%8A%E6%B3%A2%E6%8B%89%E7%97%85%E6%AF%92%E7%96%AB%E6%83%85</t>
@@ -3311,13 +3266,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A0%BC%E6%8B%89%C2%B7%E9%BB%98%E5%85%8B%E7%88%BE</t>
   </si>
   <si>
-    <t>安格拉·默克爾</t>
+    <t>安格拉·默克尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%E5%BE%B7%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納德·川普</t>
+    <t>唐纳德·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Me_Too</t>
@@ -7415,7 +7370,7 @@
         <v>247</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -7441,10 +7396,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="G130" t="n">
         <v>6</v>
@@ -7470,10 +7425,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -7499,10 +7454,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="G132" t="n">
         <v>5</v>
@@ -7528,10 +7483,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>36</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7557,10 +7512,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7586,10 +7541,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7615,10 +7570,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -7644,10 +7599,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -7673,10 +7628,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -7702,10 +7657,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G139" t="n">
         <v>11</v>
@@ -7731,10 +7686,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7760,10 +7715,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7789,10 +7744,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7818,10 +7773,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7847,10 +7802,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7876,10 +7831,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7905,10 +7860,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7934,10 +7889,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -7963,10 +7918,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7992,10 +7947,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -8021,10 +7976,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G150" t="n">
         <v>7</v>
@@ -8050,10 +8005,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G151" t="n">
         <v>8</v>
@@ -8079,10 +8034,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>236</v>
       </c>
       <c r="G152" t="n">
         <v>9</v>
@@ -8108,10 +8063,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G153" t="n">
         <v>5</v>
@@ -8137,10 +8092,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8195,10 +8150,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8224,10 +8179,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G157" t="n">
         <v>3</v>
@@ -8253,10 +8208,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>6</v>
       </c>
       <c r="G158" t="n">
         <v>5</v>
@@ -8282,10 +8237,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>10</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -8311,10 +8266,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>8</v>
       </c>
       <c r="G160" t="n">
         <v>4</v>
@@ -8340,10 +8295,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>96</v>
       </c>
       <c r="G161" t="n">
         <v>15</v>
@@ -8369,10 +8324,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -8398,10 +8353,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -8427,10 +8382,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8456,10 +8411,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8485,10 +8440,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G166" t="n">
         <v>3</v>
@@ -8543,10 +8498,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G168" t="n">
         <v>5</v>
@@ -8572,10 +8527,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8601,10 +8556,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G170" t="n">
         <v>4</v>
@@ -8659,10 +8614,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8688,10 +8643,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -8717,10 +8672,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -8746,10 +8701,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8775,10 +8730,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8804,10 +8759,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8833,10 +8788,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8862,10 +8817,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8891,10 +8846,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -8920,10 +8875,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -8949,10 +8904,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -8978,10 +8933,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -9007,10 +8962,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -9036,10 +8991,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -9065,10 +9020,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9094,10 +9049,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -9123,10 +9078,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -9152,10 +9107,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -9181,10 +9136,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9210,10 +9165,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -9239,10 +9194,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9268,10 +9223,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -9297,10 +9252,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9326,10 +9281,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -9355,10 +9310,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9384,10 +9339,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G197" t="n">
         <v>5</v>
@@ -9413,10 +9368,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9442,10 +9397,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9471,10 +9426,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9500,10 +9455,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9529,10 +9484,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9558,10 +9513,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9587,10 +9542,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9616,10 +9571,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -9645,10 +9600,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -9674,10 +9629,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -9703,10 +9658,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="G208" t="n">
         <v>8</v>
@@ -9732,10 +9687,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9761,10 +9716,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9790,10 +9745,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9819,10 +9774,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9848,10 +9803,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9877,10 +9832,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9906,10 +9861,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9935,10 +9890,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9964,10 +9919,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9993,10 +9948,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -10022,10 +9977,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -10051,10 +10006,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="F220" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10080,10 +10035,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -10109,10 +10064,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -10138,10 +10093,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="F223" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10167,10 +10122,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -10196,10 +10151,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -10225,10 +10180,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>62</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10254,10 +10209,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10283,10 +10238,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10312,10 +10267,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10341,10 +10296,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="G230" t="n">
         <v>3</v>
@@ -10370,10 +10325,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10399,10 +10354,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="G232" t="n">
         <v>4</v>
@@ -10428,10 +10383,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10457,10 +10412,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -10486,10 +10441,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="F235" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10515,10 +10470,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F236" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10544,10 +10499,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F237" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="G237" t="n">
         <v>4</v>
@@ -10573,10 +10528,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F238" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10602,10 +10557,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F239" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -10631,10 +10586,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="F240" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10660,10 +10615,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F241" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10689,10 +10644,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="F242" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10718,10 +10673,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F243" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G243" t="n">
         <v>7</v>
@@ -10747,10 +10702,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F244" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10776,10 +10731,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F245" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10805,10 +10760,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F246" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10834,10 +10789,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F247" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10863,10 +10818,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F248" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G248" t="n">
         <v>4</v>
@@ -10892,10 +10847,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F249" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -10921,10 +10876,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F250" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10950,10 +10905,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F251" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11008,10 +10963,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F253" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11037,10 +10992,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F254" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11066,10 +11021,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F255" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11095,10 +11050,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F256" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11124,10 +11079,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F257" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -11153,10 +11108,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F258" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11182,10 +11137,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F259" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="G259" t="n">
         <v>6</v>
@@ -11211,10 +11166,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F260" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -11240,10 +11195,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F261" t="s">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11269,10 +11224,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11298,10 +11253,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G263" t="n">
         <v>6</v>
@@ -11327,10 +11282,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11356,10 +11311,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11385,10 +11340,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11414,10 +11369,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11443,10 +11398,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11472,10 +11427,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F269" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11501,10 +11456,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F270" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11530,10 +11485,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F271" t="s">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="G271" t="n">
         <v>20</v>
@@ -11646,10 +11601,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F275" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="G275" t="n">
         <v>13</v>
@@ -11704,10 +11659,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F277" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G277" t="n">
         <v>37</v>
@@ -11762,10 +11717,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F279" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -11820,10 +11775,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="F281" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11849,10 +11804,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="F282" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="G282" t="n">
         <v>80</v>
@@ -11878,10 +11833,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="F283" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="G283" t="n">
         <v>82</v>
@@ -11907,10 +11862,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F284" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="G284" t="n">
         <v>5</v>
@@ -11936,10 +11891,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="F285" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -11965,10 +11920,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="F286" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="G286" t="n">
         <v>4</v>
@@ -11994,10 +11949,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F287" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -12023,10 +11978,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F288" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G288" t="n">
         <v>4</v>
@@ -12052,10 +12007,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F289" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="G289" t="n">
         <v>9</v>
@@ -12081,10 +12036,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F290" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="G290" t="n">
         <v>9</v>
@@ -12110,10 +12065,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F291" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12139,10 +12094,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F292" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12168,10 +12123,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="F293" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="G293" t="n">
         <v>36</v>
@@ -12226,10 +12181,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F295" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12255,10 +12210,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="F296" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12284,10 +12239,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F297" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12313,10 +12268,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F298" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12342,10 +12297,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="F299" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12371,10 +12326,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="F300" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12400,10 +12355,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="F301" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12429,10 +12384,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="F302" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12458,10 +12413,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="F303" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12487,10 +12442,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="F304" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="G304" t="n">
         <v>135</v>
@@ -12516,10 +12471,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="F305" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12545,10 +12500,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="F306" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12574,10 +12529,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="F307" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="G307" t="n">
         <v>18</v>
@@ -12603,10 +12558,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="F308" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12632,10 +12587,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="F309" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12661,10 +12616,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="F310" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12690,10 +12645,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="F311" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -12719,10 +12674,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="F312" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12748,10 +12703,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="F313" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12777,10 +12732,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="F314" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12806,10 +12761,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="F315" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12835,10 +12790,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="F316" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12864,10 +12819,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="F317" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12893,10 +12848,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="F318" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12922,10 +12877,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="F319" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12951,10 +12906,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="F320" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12980,10 +12935,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="F321" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -13009,10 +12964,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="F322" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -13038,10 +12993,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="F323" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -13067,10 +13022,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="F324" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13096,10 +13051,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="F325" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13125,10 +13080,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="F326" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="G326" t="n">
         <v>6</v>
@@ -13154,10 +13109,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="F327" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13183,10 +13138,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F328" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13212,10 +13167,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="F329" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13241,10 +13196,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="F330" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13270,10 +13225,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="F331" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13299,10 +13254,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="F332" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13328,10 +13283,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="F333" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13357,10 +13312,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="F334" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13386,10 +13341,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="F335" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13415,10 +13370,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="F336" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13444,10 +13399,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="F337" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13473,10 +13428,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="F338" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13531,10 +13486,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="F340" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13560,10 +13515,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="F341" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13589,10 +13544,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="F342" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -13618,10 +13573,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="F343" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="G343" t="n">
         <v>3</v>
@@ -13647,10 +13602,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="F344" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13676,10 +13631,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="F345" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13705,10 +13660,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F346" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13734,10 +13689,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="F347" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="G347" t="n">
         <v>3</v>
@@ -13763,10 +13718,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="F348" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="G348" t="n">
         <v>3</v>
@@ -13792,10 +13747,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="F349" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="G349" t="n">
         <v>3</v>
@@ -13821,10 +13776,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="F350" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13850,10 +13805,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="F351" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13879,10 +13834,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="F352" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13908,10 +13863,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="F353" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13937,10 +13892,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="F354" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="G354" t="n">
         <v>2</v>
@@ -13966,10 +13921,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="F355" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -13995,10 +13950,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="F356" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14024,10 +13979,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="F357" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -14053,10 +14008,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="F358" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14082,10 +14037,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="F359" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14111,10 +14066,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="F360" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14140,10 +14095,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="F361" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14169,10 +14124,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="F362" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14198,10 +14153,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="F363" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14227,10 +14182,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="F364" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14256,10 +14211,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="F365" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14285,10 +14240,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="F366" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14314,10 +14269,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="F367" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14343,10 +14298,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="F368" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="G368" t="n">
         <v>4</v>
@@ -14372,10 +14327,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="F369" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14401,10 +14356,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F370" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14430,10 +14385,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="F371" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14459,10 +14414,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="F372" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14488,10 +14443,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="F373" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14517,10 +14472,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="F374" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14546,10 +14501,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="F375" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14575,10 +14530,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="F376" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="G376" t="n">
         <v>4</v>
@@ -14604,10 +14559,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="F377" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -14633,10 +14588,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="F378" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14662,10 +14617,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="F379" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14691,10 +14646,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="F380" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14720,10 +14675,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="F381" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14749,10 +14704,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="F382" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14778,10 +14733,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="F383" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14807,10 +14762,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="F384" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14836,10 +14791,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="F385" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14865,10 +14820,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="F386" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14894,10 +14849,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="F387" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14923,10 +14878,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="F388" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14952,10 +14907,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="F389" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="G389" t="n">
         <v>5</v>
@@ -14981,10 +14936,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="F390" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15010,10 +14965,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="F391" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15039,10 +14994,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="F392" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15068,10 +15023,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="F393" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15097,10 +15052,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="F394" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="G394" t="n">
         <v>3</v>
@@ -15126,10 +15081,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="F395" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15155,10 +15110,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="F396" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15184,10 +15139,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="F397" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15213,10 +15168,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="F398" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15242,10 +15197,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="F399" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15271,10 +15226,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="F400" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15300,10 +15255,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="F401" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15329,10 +15284,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="F402" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15358,10 +15313,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="F403" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15387,10 +15342,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="F404" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15416,10 +15371,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="F405" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15445,10 +15400,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="F406" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15474,10 +15429,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="F407" t="s">
-        <v>752</v>
+        <v>296</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -15503,10 +15458,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="F408" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15532,10 +15487,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="F409" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15561,10 +15516,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="F410" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15590,10 +15545,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="F411" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15619,10 +15574,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="F412" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15648,10 +15603,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F413" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15677,10 +15632,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="F414" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15706,10 +15661,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="F415" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15735,10 +15690,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="F416" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15764,10 +15719,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="F417" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15793,10 +15748,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="F418" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15822,10 +15777,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="F419" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15851,10 +15806,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="F420" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15880,10 +15835,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="F421" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15909,10 +15864,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="F422" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="G422" t="n">
         <v>6</v>
@@ -15938,10 +15893,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="F423" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="G423" t="n">
         <v>8</v>
@@ -15967,10 +15922,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="F424" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="G424" t="n">
         <v>3</v>
@@ -15996,10 +15951,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="F425" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16025,10 +15980,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="F426" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16054,10 +16009,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="F427" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="G427" t="n">
         <v>2</v>
@@ -16083,10 +16038,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="F428" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16112,10 +16067,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="F429" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16141,10 +16096,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="F430" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="G430" t="n">
         <v>7</v>
@@ -16170,10 +16125,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="F431" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="G431" t="n">
         <v>4</v>
@@ -16199,10 +16154,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="F432" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16228,10 +16183,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="F433" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16257,10 +16212,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="F434" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16286,10 +16241,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="F435" t="s">
-        <v>808</v>
+        <v>743</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16315,10 +16270,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="F436" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16344,10 +16299,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="F437" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16373,10 +16328,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="F438" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16402,10 +16357,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="F439" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16431,10 +16386,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="F440" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="G440" t="n">
         <v>2</v>
@@ -16460,10 +16415,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="F441" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16489,10 +16444,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="F442" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16518,10 +16473,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="F443" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16547,10 +16502,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="F444" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16576,10 +16531,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="F445" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16605,10 +16560,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="F446" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16634,10 +16589,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="F447" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16663,10 +16618,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="F448" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="G448" t="n">
         <v>4</v>
@@ -16692,10 +16647,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="F449" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16721,10 +16676,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="F450" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16750,10 +16705,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="F451" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16779,10 +16734,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="F452" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16808,10 +16763,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="F453" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16837,10 +16792,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="F454" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16866,10 +16821,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="F455" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16895,10 +16850,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="F456" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="G456" t="n">
         <v>4</v>
@@ -16924,10 +16879,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="F457" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16953,10 +16908,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="F458" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16982,10 +16937,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="F459" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17011,10 +16966,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="F460" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17040,10 +16995,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="F461" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17069,10 +17024,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="F462" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17098,10 +17053,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="F463" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17127,10 +17082,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="F464" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="G464" t="n">
         <v>2</v>
@@ -17156,10 +17111,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="F465" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="G465" t="n">
         <v>2</v>
@@ -17185,10 +17140,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="F466" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17214,10 +17169,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="F467" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17243,10 +17198,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="F468" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="G468" t="n">
         <v>6</v>
@@ -17272,10 +17227,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="F469" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17301,10 +17256,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="F470" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17330,10 +17285,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="F471" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17359,10 +17314,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="F472" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17388,10 +17343,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="F473" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17417,10 +17372,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="F474" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17446,10 +17401,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="F475" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17475,10 +17430,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="F476" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17504,10 +17459,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="F477" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17533,10 +17488,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="F478" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17562,10 +17517,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="F479" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17591,10 +17546,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F480" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17620,10 +17575,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="F481" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17649,10 +17604,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="F482" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17678,10 +17633,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="F483" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17707,10 +17662,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="F484" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17736,10 +17691,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F485" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17765,10 +17720,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="F486" t="s">
-        <v>910</v>
+        <v>482</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17794,10 +17749,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="F487" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17823,10 +17778,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="F488" t="s">
-        <v>914</v>
+        <v>899</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17852,10 +17807,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="F489" t="s">
-        <v>916</v>
+        <v>901</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17881,10 +17836,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
       <c r="F490" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17910,10 +17865,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>919</v>
+        <v>904</v>
       </c>
       <c r="F491" t="s">
-        <v>920</v>
+        <v>905</v>
       </c>
       <c r="G491" t="n">
         <v>3</v>
@@ -17939,10 +17894,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="F492" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17968,10 +17923,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>923</v>
+        <v>908</v>
       </c>
       <c r="F493" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17997,10 +17952,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="F494" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18026,10 +17981,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="F495" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18055,10 +18010,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="F496" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18084,10 +18039,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="F497" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="G497" t="n">
         <v>2</v>
@@ -18113,10 +18068,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="F498" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="G498" t="n">
         <v>2</v>
@@ -18142,10 +18097,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="F499" t="s">
-        <v>936</v>
+        <v>921</v>
       </c>
       <c r="G499" t="n">
         <v>2</v>
@@ -18171,10 +18126,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>937</v>
+        <v>922</v>
       </c>
       <c r="F500" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="G500" t="n">
         <v>2</v>
@@ -18200,10 +18155,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="F501" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="G501" t="n">
         <v>2</v>
@@ -18229,10 +18184,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="F502" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18258,10 +18213,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
       <c r="F503" t="s">
-        <v>944</v>
+        <v>929</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18287,10 +18242,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="F504" t="s">
-        <v>946</v>
+        <v>931</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18316,10 +18271,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>947</v>
+        <v>932</v>
       </c>
       <c r="F505" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18345,10 +18300,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>949</v>
+        <v>934</v>
       </c>
       <c r="F506" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18374,10 +18329,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>951</v>
+        <v>936</v>
       </c>
       <c r="F507" t="s">
-        <v>952</v>
+        <v>937</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18403,10 +18358,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>953</v>
+        <v>938</v>
       </c>
       <c r="F508" t="s">
-        <v>954</v>
+        <v>939</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18432,10 +18387,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>955</v>
+        <v>940</v>
       </c>
       <c r="F509" t="s">
-        <v>956</v>
+        <v>941</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18461,10 +18416,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>957</v>
+        <v>942</v>
       </c>
       <c r="F510" t="s">
-        <v>958</v>
+        <v>943</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18490,10 +18445,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>959</v>
+        <v>944</v>
       </c>
       <c r="F511" t="s">
-        <v>960</v>
+        <v>945</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18519,10 +18474,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>961</v>
+        <v>946</v>
       </c>
       <c r="F512" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18548,10 +18503,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>963</v>
+        <v>948</v>
       </c>
       <c r="F513" t="s">
-        <v>964</v>
+        <v>949</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18577,10 +18532,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>965</v>
+        <v>950</v>
       </c>
       <c r="F514" t="s">
-        <v>966</v>
+        <v>951</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18606,10 +18561,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>967</v>
+        <v>952</v>
       </c>
       <c r="F515" t="s">
-        <v>968</v>
+        <v>953</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18635,10 +18590,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>969</v>
+        <v>954</v>
       </c>
       <c r="F516" t="s">
-        <v>970</v>
+        <v>955</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18664,10 +18619,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>971</v>
+        <v>956</v>
       </c>
       <c r="F517" t="s">
-        <v>972</v>
+        <v>957</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18693,10 +18648,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>973</v>
+        <v>958</v>
       </c>
       <c r="F518" t="s">
-        <v>974</v>
+        <v>959</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18722,10 +18677,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>975</v>
+        <v>960</v>
       </c>
       <c r="F519" t="s">
-        <v>976</v>
+        <v>961</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18751,10 +18706,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>977</v>
+        <v>962</v>
       </c>
       <c r="F520" t="s">
-        <v>978</v>
+        <v>963</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18780,10 +18735,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>979</v>
+        <v>964</v>
       </c>
       <c r="F521" t="s">
-        <v>980</v>
+        <v>965</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18809,10 +18764,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>981</v>
+        <v>966</v>
       </c>
       <c r="F522" t="s">
-        <v>982</v>
+        <v>967</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18838,10 +18793,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>983</v>
+        <v>968</v>
       </c>
       <c r="F523" t="s">
-        <v>984</v>
+        <v>969</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18867,10 +18822,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>985</v>
+        <v>970</v>
       </c>
       <c r="F524" t="s">
-        <v>986</v>
+        <v>971</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18896,10 +18851,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>987</v>
+        <v>972</v>
       </c>
       <c r="F525" t="s">
-        <v>988</v>
+        <v>973</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18925,10 +18880,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>989</v>
+        <v>974</v>
       </c>
       <c r="F526" t="s">
-        <v>990</v>
+        <v>975</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18954,10 +18909,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>991</v>
+        <v>976</v>
       </c>
       <c r="F527" t="s">
-        <v>992</v>
+        <v>977</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18983,10 +18938,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>993</v>
+        <v>978</v>
       </c>
       <c r="F528" t="s">
-        <v>994</v>
+        <v>979</v>
       </c>
       <c r="G528" t="n">
         <v>2</v>
@@ -19012,10 +18967,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>995</v>
+        <v>980</v>
       </c>
       <c r="F529" t="s">
-        <v>996</v>
+        <v>981</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19041,10 +18996,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>997</v>
+        <v>982</v>
       </c>
       <c r="F530" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19070,10 +19025,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="F531" t="s">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19099,10 +19054,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1001</v>
+        <v>986</v>
       </c>
       <c r="F532" t="s">
-        <v>1002</v>
+        <v>987</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19128,10 +19083,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1003</v>
+        <v>988</v>
       </c>
       <c r="F533" t="s">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19157,10 +19112,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1005</v>
+        <v>990</v>
       </c>
       <c r="F534" t="s">
-        <v>1006</v>
+        <v>991</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19186,10 +19141,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1007</v>
+        <v>992</v>
       </c>
       <c r="F535" t="s">
-        <v>1008</v>
+        <v>993</v>
       </c>
       <c r="G535" t="n">
         <v>2</v>
@@ -19215,10 +19170,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1009</v>
+        <v>994</v>
       </c>
       <c r="F536" t="s">
-        <v>1010</v>
+        <v>995</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19244,10 +19199,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1011</v>
+        <v>996</v>
       </c>
       <c r="F537" t="s">
-        <v>1012</v>
+        <v>997</v>
       </c>
       <c r="G537" t="n">
         <v>2</v>
@@ -19273,10 +19228,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1013</v>
+        <v>998</v>
       </c>
       <c r="F538" t="s">
-        <v>1014</v>
+        <v>999</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19302,10 +19257,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F539" t="s">
-        <v>1016</v>
+        <v>1001</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19331,10 +19286,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1017</v>
+        <v>1002</v>
       </c>
       <c r="F540" t="s">
-        <v>1018</v>
+        <v>1003</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19360,10 +19315,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1019</v>
+        <v>1004</v>
       </c>
       <c r="F541" t="s">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19389,10 +19344,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1021</v>
+        <v>1006</v>
       </c>
       <c r="F542" t="s">
-        <v>1022</v>
+        <v>1007</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19418,10 +19373,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1023</v>
+        <v>1008</v>
       </c>
       <c r="F543" t="s">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19447,10 +19402,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="F544" t="s">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19476,10 +19431,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1027</v>
+        <v>1012</v>
       </c>
       <c r="F545" t="s">
-        <v>1028</v>
+        <v>1013</v>
       </c>
       <c r="G545" t="n">
         <v>2</v>
@@ -19505,10 +19460,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1029</v>
+        <v>1014</v>
       </c>
       <c r="F546" t="s">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19534,10 +19489,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1031</v>
+        <v>1016</v>
       </c>
       <c r="F547" t="s">
-        <v>1032</v>
+        <v>1017</v>
       </c>
       <c r="G547" t="n">
         <v>2</v>
@@ -19563,10 +19518,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1033</v>
+        <v>1018</v>
       </c>
       <c r="F548" t="s">
-        <v>1034</v>
+        <v>1019</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19592,10 +19547,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1035</v>
+        <v>1020</v>
       </c>
       <c r="F549" t="s">
-        <v>1036</v>
+        <v>1021</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19621,10 +19576,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1037</v>
+        <v>1022</v>
       </c>
       <c r="F550" t="s">
-        <v>1038</v>
+        <v>1023</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19650,10 +19605,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1039</v>
+        <v>1024</v>
       </c>
       <c r="F551" t="s">
-        <v>1040</v>
+        <v>1025</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19679,10 +19634,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1041</v>
+        <v>1026</v>
       </c>
       <c r="F552" t="s">
-        <v>1042</v>
+        <v>1027</v>
       </c>
       <c r="G552" t="n">
         <v>2</v>
@@ -19708,10 +19663,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1043</v>
+        <v>1028</v>
       </c>
       <c r="F553" t="s">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19737,10 +19692,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1045</v>
+        <v>1030</v>
       </c>
       <c r="F554" t="s">
-        <v>1046</v>
+        <v>1031</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19766,10 +19721,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1047</v>
+        <v>1032</v>
       </c>
       <c r="F555" t="s">
-        <v>1048</v>
+        <v>1033</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19795,10 +19750,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1049</v>
+        <v>1034</v>
       </c>
       <c r="F556" t="s">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="G556" t="n">
         <v>2</v>
@@ -19824,10 +19779,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1051</v>
+        <v>1036</v>
       </c>
       <c r="F557" t="s">
-        <v>1052</v>
+        <v>1037</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19853,10 +19808,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1053</v>
+        <v>1038</v>
       </c>
       <c r="F558" t="s">
-        <v>1054</v>
+        <v>1039</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -19882,10 +19837,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1055</v>
+        <v>1040</v>
       </c>
       <c r="F559" t="s">
-        <v>1056</v>
+        <v>1041</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -19911,10 +19866,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1057</v>
+        <v>1042</v>
       </c>
       <c r="F560" t="s">
-        <v>1058</v>
+        <v>1043</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -19940,10 +19895,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1059</v>
+        <v>1044</v>
       </c>
       <c r="F561" t="s">
-        <v>1060</v>
+        <v>1045</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -19969,10 +19924,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1061</v>
+        <v>1046</v>
       </c>
       <c r="F562" t="s">
-        <v>1062</v>
+        <v>1047</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -19998,10 +19953,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1063</v>
+        <v>1048</v>
       </c>
       <c r="F563" t="s">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20027,10 +19982,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="F564" t="s">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20056,10 +20011,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1067</v>
+        <v>1052</v>
       </c>
       <c r="F565" t="s">
-        <v>1068</v>
+        <v>1053</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20085,10 +20040,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F566" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="G566" t="n">
         <v>2</v>
@@ -20114,10 +20069,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1069</v>
+        <v>1054</v>
       </c>
       <c r="F567" t="s">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20143,10 +20098,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1071</v>
+        <v>1056</v>
       </c>
       <c r="F568" t="s">
-        <v>1072</v>
+        <v>1057</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20172,10 +20127,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1073</v>
+        <v>1058</v>
       </c>
       <c r="F569" t="s">
-        <v>1074</v>
+        <v>1059</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20201,10 +20156,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1075</v>
+        <v>1060</v>
       </c>
       <c r="F570" t="s">
-        <v>1076</v>
+        <v>1061</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20230,10 +20185,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1077</v>
+        <v>1062</v>
       </c>
       <c r="F571" t="s">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20259,10 +20214,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F572" t="s">
-        <v>1080</v>
+        <v>1065</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20288,10 +20243,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1081</v>
+        <v>1066</v>
       </c>
       <c r="F573" t="s">
-        <v>1082</v>
+        <v>1067</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20317,10 +20272,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1083</v>
+        <v>1068</v>
       </c>
       <c r="F574" t="s">
-        <v>1084</v>
+        <v>1069</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20346,10 +20301,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1085</v>
+        <v>1070</v>
       </c>
       <c r="F575" t="s">
-        <v>1086</v>
+        <v>1071</v>
       </c>
       <c r="G575" t="n">
         <v>2</v>
@@ -20375,10 +20330,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="F576" t="s">
-        <v>1088</v>
+        <v>1073</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20404,10 +20359,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="F577" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20433,10 +20388,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1091</v>
+        <v>1076</v>
       </c>
       <c r="F578" t="s">
-        <v>1092</v>
+        <v>1077</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20462,10 +20417,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
       <c r="F579" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20491,10 +20446,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1095</v>
+        <v>1080</v>
       </c>
       <c r="F580" t="s">
-        <v>1096</v>
+        <v>1081</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20520,10 +20475,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1097</v>
+        <v>1082</v>
       </c>
       <c r="F581" t="s">
-        <v>1098</v>
+        <v>1083</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20549,10 +20504,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="F582" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20578,10 +20533,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1101</v>
+        <v>1086</v>
       </c>
       <c r="F583" t="s">
-        <v>1102</v>
+        <v>1087</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20607,10 +20562,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1103</v>
+        <v>1088</v>
       </c>
       <c r="F584" t="s">
-        <v>1104</v>
+        <v>1089</v>
       </c>
       <c r="G584" t="n">
         <v>14</v>
@@ -20636,10 +20591,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1103</v>
+        <v>1088</v>
       </c>
       <c r="F585" t="s">
-        <v>1105</v>
+        <v>1090</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
